--- a/exp2/ex2_experiemnt_data.xlsx
+++ b/exp2/ex2_experiemnt_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C62BE6E-2FF9-49EB-85F3-3905300C098D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{1C62BE6E-2FF9-49EB-85F3-3905300C098D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ABB1A0FA-D693-46FA-AD44-DE68880FC9FE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t xml:space="preserve">                        ifqlen settings 
 CBR values </t>
@@ -36,6 +36,38 @@
   </si>
   <si>
     <t xml:space="preserve">packet delivery ratio </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Rate: 860</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Rate: 960</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Rate: 1060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Rate: 1160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBR: 860</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBR: 960</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBR: 1060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBR: 1160</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -109,18 +141,34 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -136,6 +184,3825 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> end-to-end Delay</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data Rate: 860</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.123544</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12653900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12653900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12653900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-987E-44E2-93BF-9D8B56EDC218}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data Rate: 960</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.184306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26646500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34346599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41551100000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-987E-44E2-93BF-9D8B56EDC218}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data Rate: 1060</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.188388</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27556000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35973500000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44101000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-987E-44E2-93BF-9D8B56EDC218}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data Rate: 1160</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.190084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27905600000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36581399999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45038800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-987E-44E2-93BF-9D8B56EDC218}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="710362367"/>
+        <c:axId val="1051953711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="710362367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Quene</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Length</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1051953711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1051953711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>delat/s</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="710362367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>packet delivery ratio </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBR: 860</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.99734199999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F016-4BC2-8003-617E27E425CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBR: 960</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.89404799999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90595199999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91190499999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F016-4BC2-8003-617E27E425CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBR: 1060</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.80970399999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81509399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82048500000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82587600000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F016-4BC2-8003-617E27E425CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBR: 1160</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.73990100000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74482800000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74975400000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75468000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F016-4BC2-8003-617E27E425CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="767631791"/>
+        <c:axId val="1194085951"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="767631791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Quenue</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Length</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1194085951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1194085951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Packet</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Delivery Ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767631791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>total received data size</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1326920384951881"/>
+          <c:y val="7.407407407407407E-2"/>
+          <c:w val="0.83953018372703414"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBR: 860</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1543028</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1547140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1547140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1547140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA01-4267-9DB8-5620D6E64899}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBR: 960</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1544056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1554336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1564616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1574896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DA01-4267-9DB8-5620D6E64899}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBR: 1060</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1544056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1554336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1564616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1574896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DA01-4267-9DB8-5620D6E64899}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBR: 1160</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1544056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1554336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1564616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1574896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DA01-4267-9DB8-5620D6E64899}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="455729135"/>
+        <c:axId val="1194095103"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="455729135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Quene</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Length</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1194095103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1194095103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>total received data size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455729135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>344556</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>59635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>39756</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>46383</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F90C320-19A0-446C-A14D-C376CCBD9CEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>496955</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>205408</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E978EA07-FCE8-4782-B2A0-DF94FB2F24C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>39757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>583096</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A86D17-8301-4B4E-A0DA-1A7492C10464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,8 +4270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -433,159 +4300,159 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>30</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>40</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>20</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>30</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>40</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>860</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
         <v>0.123544</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0.12653900000000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>0.12653900000000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0.12653900000000001</v>
       </c>
-      <c r="G3">
-        <v>860</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3">
         <v>1543028</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>1547140</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>1547140</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>1547140</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>960</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
         <v>0.184306</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0.26646500000000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0.34346599999999999</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>0.41551100000000002</v>
       </c>
-      <c r="G4">
-        <v>960</v>
-      </c>
-      <c r="H4">
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3">
         <v>1544056</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>1554336</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>1564616</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>1574896</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1060</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
         <v>0.188388</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>0.27556000000000003</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>0.35973500000000003</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>0.44101000000000001</v>
       </c>
-      <c r="G5">
-        <v>1060</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3">
         <v>1544056</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>1554336</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>1564616</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>1574896</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1160</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
         <v>0.190084</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>0.27905600000000003</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>0.36581399999999997</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>0.45038800000000001</v>
       </c>
-      <c r="G6">
-        <v>1160</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3">
         <v>1544056</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>1554336</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>1564616</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>1574896</v>
       </c>
     </row>
@@ -602,84 +4469,84 @@
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>30</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>40</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>860</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.99734199999999995</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>960</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
         <v>0.89404799999999995</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>0.9</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>0.90595199999999998</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>0.91190499999999997</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1060</v>
-      </c>
-      <c r="B12">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
         <v>0.80970399999999998</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>0.81509399999999999</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>0.82048500000000002</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>0.82587600000000005</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1160</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
         <v>0.73990100000000003</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>0.74482800000000005</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>0.74975400000000003</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>0.75468000000000002</v>
       </c>
     </row>
@@ -692,5 +4559,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>